--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -11,17 +11,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
-  <si>
-    <t>Functional Tests</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>Unit Tests</t>
   </si>
   <si>
-    <t>System Tests</t>
-  </si>
-  <si>
     <t>TestCaseId</t>
   </si>
   <si>
@@ -52,36 +46,7 @@
     <t>Test Executed By</t>
   </si>
   <si>
-    <t>GoogleSearch_1</t>
-  </si>
-  <si>
-    <t>Search_Bar_Module</t>
-  </si>
-  <si>
-    <t>P0</t>
-  </si>
-  <si>
-    <t>Verify that when a user writes a search term and presses enter, search results should be displayed</t>
-  </si>
-  <si>
-    <t>Browser is launched</t>
-  </si>
-  <si>
-    <t>1. Write the url - http://google.com in the browser's URL bar and press enter.
- 2. Once google.com is launched, write the search term - "Apple" in the google search bar.
- 3. Press enter.</t>
-  </si>
-  <si>
-    <t>Search results related to 'apple' should be displayed</t>
-  </si>
-  <si>
-    <t>Search results with 'apple' keyword are displayed</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>TesterK</t>
+    <t>Our 10 tests are shown vertically, scroll down to see them all. We have included 3 unit tests, 4 functional tests, and 3 system tests.</t>
   </si>
   <si>
     <t>GetMovieInfo_1</t>
@@ -112,7 +77,10 @@
     <t>An array is returned with the values [IT, 090822, 1761274090, 7.54, Horror]</t>
   </si>
   <si>
-    <t>T</t>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>TesterA</t>
   </si>
   <si>
     <t>DeleteMovie_1</t>
@@ -139,9 +107,6 @@
     <t>The movie is deleted and an error is displayed regarding an attempt to delete an object that does not exist</t>
   </si>
   <si>
-    <t>TesterA</t>
-  </si>
-  <si>
     <t>GetFreeSeats_1</t>
   </si>
   <si>
@@ -154,14 +119,14 @@
     <t>Verify that using getFreeSeats() properly returns the amount of free seats for the movie</t>
   </si>
   <si>
-    <t>Movie object is created with a seat map that starts out empty</t>
+    <t>Movie object is created with a seat map from theater A that starts out empty</t>
   </si>
   <si>
     <t xml:space="preserve">1. Create a Movie object with the correct parameters
 2. The seat map should contain 100 seats
-2. Call getFreeSeats() using the movie
-3. Fill all the seats in the seats map as if they were all sold
-4. Call getFreeSeats() using the movie again
+2. Call getFreeSeats() using the movie and theater A
+3. Fill all the seats in the seats map of theater A as if they were all sold
+4. Call getFreeSeats() using the movie again also with theater A
 </t>
   </si>
   <si>
@@ -171,14 +136,213 @@
     <t>The function returns 100 seats during the first call, and during the second call returns that there are 0 seats available</t>
   </si>
   <si>
-    <t>Get</t>
+    <t>Functional Tests</t>
+  </si>
+  <si>
+    <t>Seat_Map_Conflict</t>
+  </si>
+  <si>
+    <t>Seat Map</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>Verify that when a two users pick the same seat within the same time period as one another, the later user is shown an error picking that seat and the seat refreshes to current status.</t>
+  </si>
+  <si>
+    <t>A showtime has an open seat available (EX. B4).  User's A and B both are viewing the showtime and attempt to select B4 at the same time.</t>
+  </si>
+  <si>
+    <t>1. User A selects B4 initially.
+ 2. User B selects B4 within 1-2 seconds of user A.
+ 3. Both User A and user B proceed to checkout and attempts to checkout.</t>
+  </si>
+  <si>
+    <t>As user A was the first to select the seat, they successfuly checkout and are directed to payment process. User B is met with an error message and the seat map is refreshed, displaying B4 as now unavailable.</t>
+  </si>
+  <si>
+    <t>User A successfully checks out. User B is directed to select another seat.</t>
+  </si>
+  <si>
+    <t>TesterB</t>
+  </si>
+  <si>
+    <t>Refund_Policy_Window</t>
+  </si>
+  <si>
+    <t>Refund Policy</t>
+  </si>
+  <si>
+    <t>Verify that refunds are not allowed 30 minutes before showtime, during showtime, and after showtime.</t>
+  </si>
+  <si>
+    <t>Customer/user has a valid ticket for a showtime. Must be past 30 minutes before said showtime.</t>
+  </si>
+  <si>
+    <t>1. Open website and navigate to 'My Tickets'
+2. Ensure time is correct for an available refund
+3. Click 'Refund Ticket'
+4. Confirm Refund
+5. Ensure time is now past correct time for a refund
+6. Attempt to Refund Ticket</t>
+  </si>
+  <si>
+    <t>Two different results expected based on conditions. If refund request is submitted within the 30 minute window of the showtime, the refund is blocked with a policy message and description. Support options are also provided to the customer as well. If refund request is made before the 30 minute window, refund is given back in full.</t>
+  </si>
+  <si>
+    <t>The refund is given for the first ticket, but the second ticket is not allowed a refund because it is already too ltae.</t>
+  </si>
+  <si>
+    <t>Search_Filter</t>
+  </si>
+  <si>
+    <t>UI Search Services</t>
+  </si>
+  <si>
+    <t>User searches by desired movie title, showtimes, or genre and matching showtimes for the desired movie is generated and provided to the user.</t>
+  </si>
+  <si>
+    <t>Movie database is populated with at least 20 movies across multiple genres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Within the system, navigate to movie selection.
+2. Click searchbar and enter desired movie, genre, or showtime.
+3. Showtimes are shown and user browses showtimes.
+</t>
+  </si>
+  <si>
+    <t>The expected result is the movies best fitting under the input given by the user. Similar movies relating to the search is provided below the best matching showtimes as well. If the movie itself is not found, only suggested and similar movies are shown.</t>
+  </si>
+  <si>
+    <t>The movie is shown along with its showtimes.</t>
+  </si>
+  <si>
+    <t>Payment_Failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment </t>
+  </si>
+  <si>
+    <t>Verify that the payment failure process correctly handles declined  transactions and updates seats put on hold to instead available.</t>
+  </si>
+  <si>
+    <t>User has selected a seat and is continuing to the checkout and payment process. Test payment method and the case that it declines from insufficient funds, frozen card, etc.</t>
+  </si>
+  <si>
+    <t>1. Select movie, showtime, and seat.
+2. Proceed to checkout and payment process
+3. Provide payment method information of declined method
+4. Verify transaction failed
+5. Verify declined transaction from payment method and inform user with prompted message.
+6. Change selected seat from hold to available.</t>
+  </si>
+  <si>
+    <t>Customer is met with declined transaction message and prompted to try again.</t>
+  </si>
+  <si>
+    <t>The payment failure is verified and user is informed.</t>
+  </si>
+  <si>
+    <t>System Tests</t>
+  </si>
+  <si>
+    <t>System_000</t>
+  </si>
+  <si>
+    <t>Complete_Purchase_Workflow</t>
+  </si>
+  <si>
+    <t>Verify complete end-to-end ticket purchase workflow between browsing, checkout, and ticket/purchase confirmation.</t>
+  </si>
+  <si>
+    <t>MTTS Database is operating with populated and updated databases, tests with payment gateways and processes, and email services for customer is configured.</t>
+  </si>
+  <si>
+    <t>1. Navigate to homepage of MTTS
+2. Search for desired moive.
+3. Select showtime, location, and seats.
+4. Proceed to checkout.
+5. Provide payment details and complete purchase.
+6. Verify confirmation screen and check email for QR code, along with additional confirmation.
+7. Verify database updates with new processed transaction.</t>
+  </si>
+  <si>
+    <t>Seat chosen by user is marked as sold and reserved in databse, payment is succesfully processed, confirmaton screen is displayed to user, and QR code for tickets is emailed to the email the user has provided to the system. For the user, the database is updated so that the user can acces their ticket as well in the bookings section of the MTTS.</t>
+  </si>
+  <si>
+    <t>The full payment process is submitted, the database is updated, and the purchase itself is confirmed.</t>
+  </si>
+  <si>
+    <t>TesterC</t>
+  </si>
+  <si>
+    <t>System_001</t>
+  </si>
+  <si>
+    <t>Refund_Cancellation_Workflow</t>
+  </si>
+  <si>
+    <t>Verify complete refund workflow, from the ticket cancellation, the seat becoming free, payment refund, and email sent showcasing the refund and cancellation</t>
+  </si>
+  <si>
+    <t>Customer with a booking for a seat D8, with their payment info properly stored. Browser launched to the MTTS</t>
+  </si>
+  <si>
+    <t>1. Open the MTTS website
+2. Log in to the test customer account
+3. Navigate to the customers current tickets
+4. Select the ticket with a seat for D8
+5. Request a refund
+6. Confirm the refund request
+7. Verify the confirmation request
+8. Ensure that seat D8 is now available
+9. Verify that payment was refunded
+10. Check the email for the refund confirmation email
+11. Attempt to use the movie QR code</t>
+  </si>
+  <si>
+    <t>The ticket is properly cancelled in the database, alongside the seat becoming available, the confirmation email was received, the payment was refunded to the proper payment method, the ticket QR code can no longer be used</t>
+  </si>
+  <si>
+    <t>The ticket was correctly cancelled, the seat became available, a confirmation email was received, payment was refunded to the paypal, the ticket QR code could not be used to attend the movie</t>
+  </si>
+  <si>
+    <t>System_002</t>
+  </si>
+  <si>
+    <t>Loyalty_Redemption_Workflow</t>
+  </si>
+  <si>
+    <t>Verify that when a user attempts to redeem their loyalty points, a discount is properly applied to their purchase and their loyalty points are removed</t>
+  </si>
+  <si>
+    <t>Customer account with 75 loyalty points, the system will use 5 loyalty points for each $1 discount, browser launched to the MTTS</t>
+  </si>
+  <si>
+    <t>1. Log into the customer account with 75 loyalty points
+2. Verify that the account has 75 loyalty points
+3. Start a ticket purchase for a random seat at any movie
+4. At checkout, click "Use loyalty points"
+5. Select the $5 discount option
+6. Complete the payment, the ticket should now cost $10 (down from $15)
+7. Complete payment
+8. Verify ticket purchase by navigating to my tickets
+9. Check remaining loyalty points (should now be 25)
+10. Verify that only $10 was charged to the test card</t>
+  </si>
+  <si>
+    <t>The loyalty points were correctly displayed and after the purchase was made were subtracted accordingly in the database and on the user's end, there should only be $10 charged to the payment method being used and the payment should properly be processed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The loyalty points were correctly subtracted, and the ticket only costed $10. The user got access to the ticket and it worked correctly. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -193,15 +357,32 @@
     </font>
     <font/>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="35.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9.0"/>
       <color rgb="FF333333"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -274,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -283,17 +464,33 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,350 +722,551 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+    </row>
+    <row r="3" ht="192.0" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="J7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="4" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="D13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="E13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="F13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="G13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="H13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="I13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="J13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="D15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="5" t="s">
+      <c r="J15" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB3" s="5" t="s">
+      <c r="D16" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AC3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="J4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="J5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD5" s="5" t="s">
-        <v>22</v>
+      <c r="J16" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="U1:AD1"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="L2:N4"/>
   </mergeCells>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
